--- a/BoardLayout.xlsx
+++ b/BoardLayout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306_Z\Clue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\adit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="29">
   <si>
     <t>S</t>
   </si>
@@ -90,13 +90,34 @@
   </si>
   <si>
     <t>CR</t>
+  </si>
+  <si>
+    <t>Number of Doors: 11</t>
+  </si>
+  <si>
+    <t>Orange: adjacency list tests, inside room</t>
+  </si>
+  <si>
+    <t>Purple: adjacency list tests, room exits</t>
+  </si>
+  <si>
+    <t>Green: adjacency lists beside room entrance</t>
+  </si>
+  <si>
+    <t>Light Purple: walkway scenarios</t>
+  </si>
+  <si>
+    <t>Light Blue: test targets</t>
+  </si>
+  <si>
+    <t>Gray: Door Direction tests (in BoardInitTests)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +140,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +157,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF95DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC6600"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -161,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,7 +233,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -178,7 +277,7 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -199,18 +298,14 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC6600"/>
+      <color rgb="FFBF95DF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -485,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +617,7 @@
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -700,7 +795,7 @@
       <c r="R3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="T3" s="1" t="s">
@@ -738,10 +833,10 @@
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -756,7 +851,7 @@
       <c r="L4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -774,7 +869,7 @@
       <c r="R4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="T4" s="1" t="s">
@@ -812,7 +907,7 @@
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -928,7 +1023,7 @@
       <c r="T6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -945,7 +1040,7 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -954,7 +1049,7 @@
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1046,7 +1141,7 @@
       <c r="J8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -1061,7 +1156,7 @@
       <c r="O8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1073,7 +1168,7 @@
       <c r="S8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="U8" s="1" t="s">
@@ -1082,7 +1177,7 @@
       <c r="V8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X8" s="2">
@@ -1147,7 +1242,7 @@
       <c r="S9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="U9" s="1" t="s">
@@ -1185,7 +1280,7 @@
       <c r="G10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1250,7 +1345,7 @@
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1283,10 +1378,10 @@
       <c r="O11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="P11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -1389,7 +1484,7 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1540,7 +1635,7 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1591,7 +1686,7 @@
       <c r="S15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="U15" s="1" t="s">
@@ -1608,7 +1703,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1629,7 +1724,7 @@
       <c r="G16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1647,7 +1742,7 @@
       <c r="M16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="11" t="s">
         <v>2</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -1665,7 +1760,7 @@
       <c r="S16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
@@ -1703,7 +1798,7 @@
       <c r="G17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1748,7 +1843,7 @@
       <c r="V17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X17" s="2">
@@ -1810,7 +1905,7 @@
       <c r="R18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="15" t="s">
         <v>15</v>
       </c>
       <c r="T18" s="1" t="s">
@@ -1842,7 +1937,7 @@
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1934,7 +2029,7 @@
       <c r="J20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="12" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -1949,10 +2044,10 @@
       <c r="O20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R20" s="1" t="s">
@@ -2135,10 +2230,10 @@
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2174,7 +2269,7 @@
       <c r="P23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" s="11" t="s">
         <v>2</v>
       </c>
       <c r="R23" s="1" t="s">
@@ -2192,7 +2287,7 @@
       <c r="V23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="12" t="s">
         <v>7</v>
       </c>
       <c r="X23" s="2">
@@ -2271,8 +2366,109 @@
       </c>
       <c r="X24" s="2"/>
     </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:X24">
+  <conditionalFormatting sqref="A2:X3 E26 A13:X15 A11:D11 F11:O11 A18:X18 B16:G16 O16:S16 Q11:X11 A24:X24 A23:D23 F23:P23 A21:X22 A20:P20 R20:X20 I16:M16 A6:X6 I4:R4 A9:X9 A8:S8 U8:V8 A7 C7:X7 T4:X4 A1:H1 J1:X1 A17:V17 X17 A19:D19 F19:X19 A10:G10 I10:X10 R23:X23 X8 A4:F5 H5:X5 A12:S12 U12:X12 U16:X16">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",A1)))</formula>
     </cfRule>

--- a/BoardLayout.xlsx
+++ b/BoardLayout.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\adit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63793B3D-98EC-4E34-BAA3-199304AFC4F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +147,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +203,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -220,11 +233,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,9 +286,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -579,11 +597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +884,7 @@
       <c r="Q4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S4" s="9" t="s">
@@ -1724,7 +1742,7 @@
       <c r="G16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="17" t="s">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1760,7 +1778,7 @@
       <c r="S16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T16" s="8" t="s">
+      <c r="T16" s="17" t="s">
         <v>2</v>
       </c>
       <c r="U16" s="1" t="s">
@@ -2233,7 +2251,7 @@
       <c r="D23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2468,7 +2486,7 @@
       <c r="K32" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:X3 E26 A13:X15 A11:D11 F11:O11 A18:X18 B16:G16 O16:S16 Q11:X11 A24:X24 A23:D23 F23:P23 A21:X22 A20:P20 R20:X20 I16:M16 A6:X6 I4:R4 A9:X9 A8:S8 U8:V8 A7 C7:X7 T4:X4 A1:H1 J1:X1 A17:V17 X17 A19:D19 F19:X19 A10:G10 I10:X10 R23:X23 X8 A4:F5 H5:X5 A12:S12 U12:X12 U16:X16">
+  <conditionalFormatting sqref="A2:X3 E26 A13:X15 A11:D11 F11:O11 A18:X18 B16:G16 O16:S16 Q11:X11 A24:X24 A23:D23 F23:P23 A21:X22 A20:P20 R20:X20 I16:M16 A6:X6 A9:X9 A8:S8 U8:V8 A7 C7:X7 T4:X4 A1:H1 J1:X1 A17:V17 X17 A19:D19 F19:X19 A10:G10 I10:X10 R23:X23 X8 A4:F5 H5:X5 A12:S12 U12:X12 U16:X16 I4:Q4">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",A1)))</formula>
     </cfRule>
